--- a/emdb/data/outputs/test_nigeria18.xlsx
+++ b/emdb/data/outputs/test_nigeria18.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">NGA</t>
   </si>
   <si>
-    <t xml:space="preserve">1.A</t>
+    <t xml:space="preserve">1.A.</t>
   </si>
   <si>
     <t xml:space="preserve">Fuel Combustion Activities</t>
@@ -65,15 +65,18 @@
     <t xml:space="preserve">Bagasse</t>
   </si>
   <si>
+    <t xml:space="preserve">Emissions (CO2bio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9999_Undetermined_9999_Undetermined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Emissions (CO2eq) from CH4 (AR5)</t>
   </si>
   <si>
-    <t xml:space="preserve">9999_Undetermined_9999_Undetermined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emissions (CO2eq) from N2O (AR5)</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
     <t xml:space="preserve">Refinery gas</t>
   </si>
   <si>
+    <t xml:space="preserve">Vegetal waste</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.B.1</t>
   </si>
   <si>
@@ -165,9 +171,6 @@
   </si>
   <si>
     <t xml:space="preserve">4661_Wholesale of solid, liquid and gaseous fuels and related products_1.B.1_Solid Fuels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emissions (CO2bio)</t>
   </si>
   <si>
     <t xml:space="preserve">1.B.2</t>
@@ -881,7 +884,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="n">
-        <v>1.037232</v>
+        <v>123.48</v>
       </c>
     </row>
     <row r="3">
@@ -916,7 +919,7 @@
         <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>1.308888</v>
+        <v>1.037232</v>
       </c>
     </row>
     <row r="4">
@@ -939,10 +942,10 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -951,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="K4" t="n">
-        <v>110.05922844</v>
+        <v>1.308888</v>
       </c>
     </row>
     <row r="5">
@@ -974,10 +977,10 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -986,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>20.832639669</v>
+        <v>2201.1845688</v>
       </c>
     </row>
     <row r="6">
@@ -1009,10 +1012,10 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -1021,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="K6" t="n">
-        <v>103.45116096</v>
+        <v>110.05922844</v>
       </c>
     </row>
     <row r="7">
@@ -1044,10 +1047,10 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -1056,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="K7" t="n">
-        <v>19.581826896</v>
+        <v>20.832639669</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
@@ -1091,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="K8" t="n">
-        <v>2.676230928</v>
+        <v>2069.0232192</v>
       </c>
     </row>
     <row r="9">
@@ -1114,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1126,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5065722828</v>
+        <v>103.45116096</v>
       </c>
     </row>
     <row r="10">
@@ -1152,7 +1155,7 @@
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -1161,7 +1164,7 @@
         <v>19</v>
       </c>
       <c r="K10" t="n">
-        <v>1465.66492569</v>
+        <v>19.581826896</v>
       </c>
     </row>
     <row r="11">
@@ -1196,7 +1199,7 @@
         <v>19</v>
       </c>
       <c r="K11" t="n">
-        <v>1.5906441054</v>
+        <v>53.52461856</v>
       </c>
     </row>
     <row r="12">
@@ -1231,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="K12" t="n">
-        <v>3.01086205665</v>
+        <v>2.676230928</v>
       </c>
     </row>
     <row r="13">
@@ -1251,22 +1254,22 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13" t="n">
-        <v>543.306632022</v>
+        <v>0.5065722828</v>
       </c>
     </row>
     <row r="14">
@@ -1286,22 +1289,22 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14" t="n">
-        <v>0.58963510452</v>
+        <v>1465.66492569</v>
       </c>
     </row>
     <row r="15">
@@ -1321,22 +1324,22 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="K15" t="n">
-        <v>1.11609501927</v>
+        <v>1.5906441054</v>
       </c>
     </row>
     <row r="16">
@@ -1359,10 +1362,10 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1371,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="K16" t="n">
-        <v>109.652473816704</v>
+        <v>3.01086205665</v>
       </c>
     </row>
     <row r="17">
@@ -1391,22 +1394,22 @@
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
         <v>26</v>
       </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="K17" t="n">
-        <v>138.370978863936</v>
+        <v>543.306632022</v>
       </c>
     </row>
     <row r="18">
@@ -1426,22 +1429,22 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
         <v>26</v>
       </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="K18" t="n">
-        <v>342.492271947</v>
+        <v>0.58963510452</v>
       </c>
     </row>
     <row r="19">
@@ -1461,22 +1464,22 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
         <v>26</v>
       </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="K19" t="n">
-        <v>432.1926288855</v>
+        <v>1.11609501927</v>
       </c>
     </row>
     <row r="20">
@@ -1499,7 +1502,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
@@ -1511,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="n">
-        <v>0.420320937931034</v>
+        <v>14620.3298422272</v>
       </c>
     </row>
     <row r="21">
@@ -1534,7 +1537,7 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -1546,7 +1549,7 @@
         <v>19</v>
       </c>
       <c r="K21" t="n">
-        <v>0.530404993103448</v>
+        <v>109.652473816704</v>
       </c>
     </row>
     <row r="22">
@@ -1569,10 +1572,10 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1581,7 +1584,7 @@
         <v>19</v>
       </c>
       <c r="K22" t="n">
-        <v>199.374621023592</v>
+        <v>138.370978863936</v>
       </c>
     </row>
     <row r="23">
@@ -1604,10 +1607,10 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -1616,7 +1619,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="n">
-        <v>251.591783672628</v>
+        <v>45665.6362596</v>
       </c>
     </row>
     <row r="24">
@@ -1636,22 +1639,22 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
         <v>27</v>
       </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24" t="n">
-        <v>190.741515807528</v>
+        <v>342.492271947</v>
       </c>
     </row>
     <row r="25">
@@ -1671,22 +1674,22 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25" t="n">
-        <v>240.697627090452</v>
+        <v>432.1926288855</v>
       </c>
     </row>
     <row r="26">
@@ -1709,10 +1712,10 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1721,7 +1724,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="n">
-        <v>13.3087305</v>
+        <v>56.0427917241379</v>
       </c>
     </row>
     <row r="27">
@@ -1744,10 +1747,10 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1756,7 +1759,7 @@
         <v>19</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01508682</v>
+        <v>0.420320937931034</v>
       </c>
     </row>
     <row r="28">
@@ -1779,10 +1782,10 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1791,7 +1794,7 @@
         <v>19</v>
       </c>
       <c r="K28" t="n">
-        <v>0.028557195</v>
+        <v>0.530404993103448</v>
       </c>
     </row>
     <row r="29">
@@ -1814,10 +1817,10 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1826,7 +1829,7 @@
         <v>19</v>
       </c>
       <c r="K29" t="n">
-        <v>201.19613475</v>
+        <v>26583.2828031456</v>
       </c>
     </row>
     <row r="30">
@@ -1849,10 +1852,10 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1861,7 +1864,7 @@
         <v>19</v>
       </c>
       <c r="K30" t="n">
-        <v>0.22807659</v>
+        <v>199.374621023592</v>
       </c>
     </row>
     <row r="31">
@@ -1884,10 +1887,10 @@
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -1896,7 +1899,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4317164025</v>
+        <v>251.591783672628</v>
       </c>
     </row>
     <row r="32">
@@ -1916,22 +1919,22 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
         <v>29</v>
       </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" t="s">
-        <v>18</v>
-      </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32" t="n">
-        <v>170.27049975</v>
+        <v>25432.2021076704</v>
       </c>
     </row>
     <row r="33">
@@ -1951,22 +1954,22 @@
         <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" t="s">
-        <v>18</v>
-      </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33" t="n">
-        <v>0.19301919</v>
+        <v>190.741515807528</v>
       </c>
     </row>
     <row r="34">
@@ -1986,22 +1989,22 @@
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
         <v>29</v>
       </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3653577525</v>
+        <v>240.697627090452</v>
       </c>
     </row>
     <row r="35">
@@ -2024,10 +2027,10 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -2036,7 +2039,7 @@
         <v>19</v>
       </c>
       <c r="K35" t="n">
-        <v>11848.7067075</v>
+        <v>13.3087305</v>
       </c>
     </row>
     <row r="36">
@@ -2059,10 +2062,10 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -2071,7 +2074,7 @@
         <v>19</v>
       </c>
       <c r="K36" t="n">
-        <v>13.4317323</v>
+        <v>0.01508682</v>
       </c>
     </row>
     <row r="37">
@@ -2094,10 +2097,10 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
@@ -2106,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="K37" t="n">
-        <v>25.424350425</v>
+        <v>0.028557195</v>
       </c>
     </row>
     <row r="38">
@@ -2129,10 +2132,10 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -2141,7 +2144,7 @@
         <v>19</v>
       </c>
       <c r="K38" t="n">
-        <v>16.03913025</v>
+        <v>201.19613475</v>
       </c>
     </row>
     <row r="39">
@@ -2164,10 +2167,10 @@
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
@@ -2176,7 +2179,7 @@
         <v>19</v>
       </c>
       <c r="K39" t="n">
-        <v>0.01818201</v>
+        <v>0.22807659</v>
       </c>
     </row>
     <row r="40">
@@ -2199,10 +2202,10 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
@@ -2211,7 +2214,7 @@
         <v>19</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0344159475</v>
+        <v>0.4317164025</v>
       </c>
     </row>
     <row r="41">
@@ -2231,22 +2234,22 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s">
         <v>24</v>
       </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H41" t="s">
-        <v>23</v>
-      </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
       </c>
       <c r="K41" t="n">
-        <v>62.5378065</v>
+        <v>170.27049975</v>
       </c>
     </row>
     <row r="42">
@@ -2266,22 +2269,22 @@
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
       </c>
       <c r="K42" t="n">
-        <v>0.07089306</v>
+        <v>0.19301919</v>
       </c>
     </row>
     <row r="43">
@@ -2301,22 +2304,22 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
       </c>
       <c r="K43" t="n">
-        <v>0.134190435</v>
+        <v>0.3653577525</v>
       </c>
     </row>
     <row r="44">
@@ -2342,7 +2345,7 @@
         <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
@@ -2351,7 +2354,7 @@
         <v>19</v>
       </c>
       <c r="K44" t="n">
-        <v>1513.247522913</v>
+        <v>11848.7067075</v>
       </c>
     </row>
     <row r="45">
@@ -2377,7 +2380,7 @@
         <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
         <v>18</v>
@@ -2386,7 +2389,7 @@
         <v>19</v>
       </c>
       <c r="K45" t="n">
-        <v>0.44090458524</v>
+        <v>13.4317323</v>
       </c>
     </row>
     <row r="46">
@@ -2412,7 +2415,7 @@
         <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
@@ -2421,7 +2424,7 @@
         <v>19</v>
       </c>
       <c r="K46" t="n">
-        <v>6.259270451175</v>
+        <v>25.424350425</v>
       </c>
     </row>
     <row r="47">
@@ -2444,19 +2447,19 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
       </c>
       <c r="K47" t="n">
-        <v>607.908418975</v>
+        <v>16.03913025</v>
       </c>
     </row>
     <row r="48">
@@ -2479,19 +2482,19 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7141861146</v>
+        <v>0.01818201</v>
       </c>
     </row>
     <row r="49">
@@ -2514,19 +2517,19 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
       </c>
       <c r="K49" t="n">
-        <v>1.35185228835</v>
+        <v>0.0344159475</v>
       </c>
     </row>
     <row r="50">
@@ -2546,22 +2549,22 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
       </c>
       <c r="K50" t="n">
-        <v>471.21441293</v>
+        <v>62.5378065</v>
       </c>
     </row>
     <row r="51">
@@ -2581,22 +2584,22 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2090967284</v>
+        <v>0.07089306</v>
       </c>
     </row>
     <row r="52">
@@ -2616,22 +2619,22 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52" t="n">
-        <v>0.19789511795</v>
+        <v>0.134190435</v>
       </c>
     </row>
     <row r="53">
@@ -2654,10 +2657,10 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -2666,7 +2669,7 @@
         <v>19</v>
       </c>
       <c r="K53" t="n">
-        <v>4.187716685</v>
+        <v>1513.247522913</v>
       </c>
     </row>
     <row r="54">
@@ -2689,10 +2692,10 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
@@ -2701,7 +2704,7 @@
         <v>19</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0018582578</v>
+        <v>0.44090458524</v>
       </c>
     </row>
     <row r="55">
@@ -2724,10 +2727,10 @@
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
         <v>18</v>
@@ -2736,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="K55" t="n">
-        <v>0.001758708275</v>
+        <v>6.259270451175</v>
       </c>
     </row>
     <row r="56">
@@ -2756,22 +2759,22 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s">
         <v>24</v>
       </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
         <v>33</v>
       </c>
-      <c r="H56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" t="s">
-        <v>25</v>
-      </c>
       <c r="J56" t="s">
         <v>19</v>
       </c>
       <c r="K56" t="n">
-        <v>42.69918948</v>
+        <v>607.908418975</v>
       </c>
     </row>
     <row r="57">
@@ -2791,22 +2794,22 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s">
         <v>33</v>
       </c>
-      <c r="H57" t="s">
-        <v>17</v>
-      </c>
-      <c r="I57" t="s">
-        <v>25</v>
-      </c>
       <c r="J57" t="s">
         <v>19</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0189473424</v>
+        <v>0.7141861146</v>
       </c>
     </row>
     <row r="58">
@@ -2826,22 +2829,22 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s">
         <v>33</v>
       </c>
-      <c r="H58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" t="s">
-        <v>25</v>
-      </c>
       <c r="J58" t="s">
         <v>19</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0179323062</v>
+        <v>1.35185228835</v>
       </c>
     </row>
     <row r="59">
@@ -2867,7 +2870,7 @@
         <v>34</v>
       </c>
       <c r="H59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
@@ -2876,7 +2879,7 @@
         <v>19</v>
       </c>
       <c r="K59" t="n">
-        <v>41136.624086481</v>
+        <v>471.21441293</v>
       </c>
     </row>
     <row r="60">
@@ -2902,7 +2905,7 @@
         <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
@@ -2911,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="K60" t="n">
-        <v>49.86257465028</v>
+        <v>0.2090967284</v>
       </c>
     </row>
     <row r="61">
@@ -2937,7 +2940,7 @@
         <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
         <v>18</v>
@@ -2946,7 +2949,7 @@
         <v>19</v>
       </c>
       <c r="K61" t="n">
-        <v>94.38273058803</v>
+        <v>0.19789511795</v>
       </c>
     </row>
     <row r="62">
@@ -2969,10 +2972,10 @@
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I62" t="s">
         <v>18</v>
@@ -2981,7 +2984,7 @@
         <v>19</v>
       </c>
       <c r="K62" t="n">
-        <v>1073.1891291</v>
+        <v>4.187716685</v>
       </c>
     </row>
     <row r="63">
@@ -3004,10 +3007,10 @@
         <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
@@ -3016,7 +3019,7 @@
         <v>19</v>
       </c>
       <c r="K63" t="n">
-        <v>0.535638068</v>
+        <v>0.0018582578</v>
       </c>
     </row>
     <row r="64">
@@ -3039,10 +3042,10 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I64" t="s">
         <v>18</v>
@@ -3051,7 +3054,7 @@
         <v>19</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5069431715</v>
+        <v>0.001758708275</v>
       </c>
     </row>
     <row r="65">
@@ -3071,22 +3074,22 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J65" t="s">
         <v>19</v>
       </c>
       <c r="K65" t="n">
-        <v>4501.049982</v>
+        <v>42.69918948</v>
       </c>
     </row>
     <row r="66">
@@ -3106,22 +3109,22 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J66" t="s">
         <v>19</v>
       </c>
       <c r="K66" t="n">
-        <v>2.24651336</v>
+        <v>0.0189473424</v>
       </c>
     </row>
     <row r="67">
@@ -3141,22 +3144,22 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J67" t="s">
         <v>19</v>
       </c>
       <c r="K67" t="n">
-        <v>2.12616443</v>
+        <v>0.0179323062</v>
       </c>
     </row>
     <row r="68">
@@ -3182,7 +3185,7 @@
         <v>35</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I68" t="s">
         <v>18</v>
@@ -3191,7 +3194,7 @@
         <v>19</v>
       </c>
       <c r="K68" t="n">
-        <v>650.1124938</v>
+        <v>41136.624086481</v>
       </c>
     </row>
     <row r="69">
@@ -3217,7 +3220,7 @@
         <v>35</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
         <v>18</v>
@@ -3226,7 +3229,7 @@
         <v>19</v>
       </c>
       <c r="K69" t="n">
-        <v>0.324476824</v>
+        <v>49.86257465028</v>
       </c>
     </row>
     <row r="70">
@@ -3252,7 +3255,7 @@
         <v>35</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I70" t="s">
         <v>18</v>
@@ -3261,7 +3264,7 @@
         <v>19</v>
       </c>
       <c r="K70" t="n">
-        <v>0.307094137</v>
+        <v>94.38273058803</v>
       </c>
     </row>
     <row r="71">
@@ -3281,22 +3284,22 @@
         <v>14</v>
       </c>
       <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
         <v>36</v>
       </c>
-      <c r="G71" t="s">
-        <v>35</v>
-      </c>
       <c r="H71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
         <v>19</v>
       </c>
       <c r="K71" t="n">
-        <v>4609.6202559</v>
+        <v>1073.1891291</v>
       </c>
     </row>
     <row r="72">
@@ -3316,22 +3319,22 @@
         <v>14</v>
       </c>
       <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
         <v>36</v>
       </c>
-      <c r="G72" t="s">
-        <v>35</v>
-      </c>
       <c r="H72" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
       </c>
       <c r="K72" t="n">
-        <v>2.300701732</v>
+        <v>0.535638068</v>
       </c>
     </row>
     <row r="73">
@@ -3351,22 +3354,22 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
         <v>36</v>
       </c>
-      <c r="G73" t="s">
-        <v>35</v>
-      </c>
       <c r="H73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J73" t="s">
         <v>19</v>
       </c>
       <c r="K73" t="n">
-        <v>2.1774498535</v>
+        <v>0.5069431715</v>
       </c>
     </row>
     <row r="74">
@@ -3386,22 +3389,22 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J74" t="s">
         <v>19</v>
       </c>
       <c r="K74" t="n">
-        <v>8018.2895232</v>
+        <v>4501.049982</v>
       </c>
     </row>
     <row r="75">
@@ -3421,22 +3424,22 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J75" t="s">
         <v>19</v>
       </c>
       <c r="K75" t="n">
-        <v>4.001998336</v>
+        <v>2.24651336</v>
       </c>
     </row>
     <row r="76">
@@ -3456,22 +3459,22 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="J76" t="s">
         <v>19</v>
       </c>
       <c r="K76" t="n">
-        <v>3.787605568</v>
+        <v>2.12616443</v>
       </c>
     </row>
     <row r="77">
@@ -3491,22 +3494,22 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s">
         <v>24</v>
       </c>
-      <c r="G77" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" t="s">
-        <v>23</v>
-      </c>
       <c r="I77" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s">
         <v>19</v>
       </c>
       <c r="K77" t="n">
-        <v>253.0902132</v>
+        <v>650.1124938</v>
       </c>
     </row>
     <row r="78">
@@ -3526,22 +3529,22 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s">
         <v>19</v>
       </c>
       <c r="K78" t="n">
-        <v>0.126319536</v>
+        <v>0.324476824</v>
       </c>
     </row>
     <row r="79">
@@ -3561,22 +3564,22 @@
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J79" t="s">
         <v>19</v>
       </c>
       <c r="K79" t="n">
-        <v>0.119552418</v>
+        <v>0.307094137</v>
       </c>
     </row>
     <row r="80">
@@ -3596,22 +3599,22 @@
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J80" t="s">
         <v>19</v>
       </c>
       <c r="K80" t="n">
-        <v>11776.891797</v>
+        <v>4609.6202559</v>
       </c>
     </row>
     <row r="81">
@@ -3631,22 +3634,22 @@
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J81" t="s">
         <v>19</v>
       </c>
       <c r="K81" t="n">
-        <v>5.87794956</v>
+        <v>2.300701732</v>
       </c>
     </row>
     <row r="82">
@@ -3666,22 +3669,22 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J82" t="s">
         <v>19</v>
       </c>
       <c r="K82" t="n">
-        <v>5.563059405</v>
+        <v>2.1774498535</v>
       </c>
     </row>
     <row r="83">
@@ -3701,22 +3704,22 @@
         <v>14</v>
       </c>
       <c r="F83" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s">
         <v>40</v>
       </c>
-      <c r="G83" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" t="s">
-        <v>41</v>
-      </c>
       <c r="J83" t="s">
         <v>19</v>
       </c>
       <c r="K83" t="n">
-        <v>3293.1678945</v>
+        <v>8018.2895232</v>
       </c>
     </row>
     <row r="84">
@@ -3736,22 +3739,22 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" t="s">
+        <v>36</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" t="s">
         <v>40</v>
       </c>
-      <c r="G84" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" t="s">
-        <v>41</v>
-      </c>
       <c r="J84" t="s">
         <v>19</v>
       </c>
       <c r="K84" t="n">
-        <v>1.64364886</v>
+        <v>4.001998336</v>
       </c>
     </row>
     <row r="85">
@@ -3771,22 +3774,22 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" t="s">
+        <v>36</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
         <v>40</v>
       </c>
-      <c r="G85" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" t="s">
-        <v>41</v>
-      </c>
       <c r="J85" t="s">
         <v>19</v>
       </c>
       <c r="K85" t="n">
-        <v>1.5555962425</v>
+        <v>3.787605568</v>
       </c>
     </row>
     <row r="86">
@@ -3806,22 +3809,22 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J86" t="s">
         <v>19</v>
       </c>
       <c r="K86" t="n">
-        <v>1148.1831603</v>
+        <v>253.0902132</v>
       </c>
     </row>
     <row r="87">
@@ -3841,22 +3844,22 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J87" t="s">
         <v>19</v>
       </c>
       <c r="K87" t="n">
-        <v>0.573068244</v>
+        <v>0.126319536</v>
       </c>
     </row>
     <row r="88">
@@ -3876,22 +3879,22 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J88" t="s">
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>0.5423681595</v>
+        <v>0.119552418</v>
       </c>
     </row>
     <row r="89">
@@ -3911,22 +3914,22 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I89" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J89" t="s">
         <v>19</v>
       </c>
       <c r="K89" t="n">
-        <v>1489.627634418</v>
+        <v>11776.891797</v>
       </c>
     </row>
     <row r="90">
@@ -3946,22 +3949,22 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
       </c>
       <c r="K90" t="n">
-        <v>0.44090458524</v>
+        <v>5.87794956</v>
       </c>
     </row>
     <row r="91">
@@ -3981,22 +3984,22 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>6.259270451175</v>
+        <v>5.563059405</v>
       </c>
     </row>
     <row r="92">
@@ -4016,22 +4019,22 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" t="s">
         <v>24</v>
       </c>
-      <c r="G92" t="s">
-        <v>44</v>
-      </c>
-      <c r="H92" t="s">
-        <v>23</v>
-      </c>
       <c r="I92" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
       </c>
       <c r="K92" t="n">
-        <v>22.991947875</v>
+        <v>3293.1678945</v>
       </c>
     </row>
     <row r="93">
@@ -4051,22 +4054,22 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H93" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0198084474</v>
+        <v>1.64364886</v>
       </c>
     </row>
     <row r="94">
@@ -4086,22 +4089,22 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>0.03749456115</v>
+        <v>1.5555962425</v>
       </c>
     </row>
     <row r="95">
@@ -4121,22 +4124,22 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" t="s">
         <v>24</v>
       </c>
-      <c r="G95" t="s">
-        <v>45</v>
-      </c>
-      <c r="H95" t="s">
-        <v>23</v>
-      </c>
       <c r="I95" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
       </c>
       <c r="K95" t="n">
-        <v>71.36811072</v>
+        <v>1148.1831603</v>
       </c>
     </row>
     <row r="96">
@@ -4156,22 +4159,22 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H96" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0346928316</v>
+        <v>0.573068244</v>
       </c>
     </row>
     <row r="97">
@@ -4191,22 +4194,22 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
       </c>
       <c r="K97" t="n">
-        <v>0.03283428705</v>
+        <v>0.5423681595</v>
       </c>
     </row>
     <row r="98">
@@ -4220,28 +4223,28 @@
         <v>2018</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I98" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
       </c>
       <c r="K98" t="n">
-        <v>13.967598995035</v>
+        <v>1489.627634418</v>
       </c>
     </row>
     <row r="99">
@@ -4255,28 +4258,28 @@
         <v>2018</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H99" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I99" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
       </c>
       <c r="K99" t="n">
-        <v>36371.48732</v>
+        <v>0.44090458524</v>
       </c>
     </row>
     <row r="100">
@@ -4290,28 +4293,28 @@
         <v>2018</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H100" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I100" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
       </c>
       <c r="K100" t="n">
-        <v>10961.962452</v>
+        <v>6.259270451175</v>
       </c>
     </row>
     <row r="101">
@@ -4325,28 +4328,28 @@
         <v>2018</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I101" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
       </c>
       <c r="K101" t="n">
-        <v>642.127103057048</v>
+        <v>22.991947875</v>
       </c>
     </row>
     <row r="102">
@@ -4360,28 +4363,28 @@
         <v>2018</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G102" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s">
         <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J102" t="s">
         <v>19</v>
       </c>
       <c r="K102" t="n">
-        <v>140.56064757</v>
+        <v>0.0198084474</v>
       </c>
     </row>
     <row r="103">
@@ -4395,28 +4398,28 @@
         <v>2018</v>
       </c>
       <c r="D103" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G103" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I103" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
       </c>
       <c r="K103" t="n">
-        <v>15596.944439247</v>
+        <v>0.03749456115</v>
       </c>
     </row>
     <row r="104">
@@ -4430,28 +4433,28 @@
         <v>2018</v>
       </c>
       <c r="D104" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G104" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I104" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
       </c>
       <c r="K104" t="n">
-        <v>92928.2661179208</v>
+        <v>71.36811072</v>
       </c>
     </row>
     <row r="105">
@@ -4465,28 +4468,28 @@
         <v>2018</v>
       </c>
       <c r="D105" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G105" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
         <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
       </c>
       <c r="K105" t="n">
-        <v>57.3251271197975</v>
+        <v>0.0346928316</v>
       </c>
     </row>
     <row r="106">
@@ -4500,28 +4503,28 @@
         <v>2018</v>
       </c>
       <c r="D106" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G106" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
       </c>
       <c r="K106" t="n">
-        <v>8747.606714</v>
+        <v>0.03283428705</v>
       </c>
     </row>
     <row r="107">
@@ -4535,28 +4538,28 @@
         <v>2018</v>
       </c>
       <c r="D107" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J107" t="s">
         <v>19</v>
       </c>
       <c r="K107" t="n">
-        <v>9.4325859499204</v>
+        <v>26066.5</v>
       </c>
     </row>
     <row r="108">
@@ -4570,28 +4573,28 @@
         <v>2018</v>
       </c>
       <c r="D108" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I108" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
       </c>
       <c r="K108" t="n">
-        <v>103.882563865</v>
+        <v>218.9586</v>
       </c>
     </row>
     <row r="109">
@@ -4605,28 +4608,28 @@
         <v>2018</v>
       </c>
       <c r="D109" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="G109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I109" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="J109" t="s">
         <v>19</v>
       </c>
       <c r="K109" t="n">
-        <v>2067.80890559</v>
+        <v>276.3049</v>
       </c>
     </row>
     <row r="110">
@@ -4640,28 +4643,28 @@
         <v>2018</v>
       </c>
       <c r="D110" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E110" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G110" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H110" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I110" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
       </c>
       <c r="K110" t="n">
-        <v>2.79216</v>
+        <v>13.967598995035</v>
       </c>
     </row>
     <row r="111">
@@ -4675,28 +4678,28 @@
         <v>2018</v>
       </c>
       <c r="D111" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F111" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G111" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H111" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I111" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J111" t="s">
         <v>19</v>
       </c>
       <c r="K111" t="n">
-        <v>26.77064</v>
+        <v>36371.48732</v>
       </c>
     </row>
     <row r="112">
@@ -4710,27 +4713,29 @@
         <v>2018</v>
       </c>
       <c r="D112" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E112" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F112" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G112" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H112" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I112" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J112" t="s">
         <v>19</v>
       </c>
-      <c r="K112"/>
+      <c r="K112" t="n">
+        <v>10961.962452</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -4743,28 +4748,28 @@
         <v>2018</v>
       </c>
       <c r="D113" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E113" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F113" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H113" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I113" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="J113" t="s">
         <v>19</v>
       </c>
       <c r="K113" t="n">
-        <v>539.6753417721</v>
+        <v>642.127103057048</v>
       </c>
     </row>
     <row r="114">
@@ -4778,28 +4783,28 @@
         <v>2018</v>
       </c>
       <c r="D114" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H114" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I114" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="J114" t="s">
         <v>19</v>
       </c>
       <c r="K114" t="n">
-        <v>8419.323442671</v>
+        <v>140.56064757</v>
       </c>
     </row>
     <row r="115">
@@ -4813,28 +4818,28 @@
         <v>2018</v>
       </c>
       <c r="D115" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E115" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F115" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H115" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I115" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J115" t="s">
         <v>19</v>
       </c>
       <c r="K115" t="n">
-        <v>0.570976315855</v>
+        <v>15596.944439247</v>
       </c>
     </row>
     <row r="116">
@@ -4848,28 +4853,28 @@
         <v>2018</v>
       </c>
       <c r="D116" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E116" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F116" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G116" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H116" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I116" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J116" t="s">
         <v>19</v>
       </c>
       <c r="K116" t="n">
-        <v>46.5497493</v>
+        <v>92928.2661179208</v>
       </c>
     </row>
     <row r="117">
@@ -4883,28 +4888,28 @@
         <v>2018</v>
       </c>
       <c r="D117" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E117" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F117" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G117" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H117" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I117" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J117" t="s">
         <v>19</v>
       </c>
       <c r="K117" t="n">
-        <v>593.845</v>
+        <v>57.3251271197975</v>
       </c>
     </row>
     <row r="118">
@@ -4918,28 +4923,28 @@
         <v>2018</v>
       </c>
       <c r="D118" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E118" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F118" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G118" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H118" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I118" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="J118" t="s">
         <v>19</v>
       </c>
       <c r="K118" t="n">
-        <v>2790.5332</v>
+        <v>8747.606714</v>
       </c>
     </row>
     <row r="119">
@@ -4953,28 +4958,28 @@
         <v>2018</v>
       </c>
       <c r="D119" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E119" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F119" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G119" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H119" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I119" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="J119" t="s">
         <v>19</v>
       </c>
       <c r="K119" t="n">
-        <v>15688.2684</v>
+        <v>9.4325859499204</v>
       </c>
     </row>
     <row r="120">
@@ -4988,28 +4993,28 @@
         <v>2018</v>
       </c>
       <c r="D120" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E120" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G120" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H120" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I120" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
       </c>
       <c r="K120" t="n">
-        <v>51.5088</v>
+        <v>103.882563865</v>
       </c>
     </row>
     <row r="121">
@@ -5023,28 +5028,28 @@
         <v>2018</v>
       </c>
       <c r="D121" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E121" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H121" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
       </c>
       <c r="K121" t="n">
-        <v>370.0032</v>
+        <v>2067.80890559</v>
       </c>
     </row>
     <row r="122">
@@ -5058,28 +5063,28 @@
         <v>2018</v>
       </c>
       <c r="D122" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E122" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F122" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G122" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H122" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I122" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
       </c>
       <c r="K122" t="n">
-        <v>360.6512</v>
+        <v>2.79216</v>
       </c>
     </row>
     <row r="123">
@@ -5093,28 +5098,28 @@
         <v>2018</v>
       </c>
       <c r="D123" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E123" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F123" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H123" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I123" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
       </c>
       <c r="K123" t="n">
-        <v>6385.3496</v>
+        <v>26.77064</v>
       </c>
     </row>
     <row r="124">
@@ -5128,29 +5133,27 @@
         <v>2018</v>
       </c>
       <c r="D124" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E124" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F124" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H124" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I124" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
       </c>
-      <c r="K124" t="n">
-        <v>11185.0284</v>
-      </c>
+      <c r="K124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -5163,28 +5166,28 @@
         <v>2018</v>
       </c>
       <c r="D125" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E125" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F125" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H125" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I125" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
       </c>
       <c r="K125" t="n">
-        <v>208.1492</v>
+        <v>539.6753417721</v>
       </c>
     </row>
     <row r="126">
@@ -5198,28 +5201,28 @@
         <v>2018</v>
       </c>
       <c r="D126" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E126" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F126" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G126" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H126" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I126" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J126" t="s">
         <v>19</v>
       </c>
       <c r="K126" t="n">
-        <v>23.128</v>
+        <v>8419.323442671</v>
       </c>
     </row>
     <row r="127">
@@ -5233,28 +5236,28 @@
         <v>2018</v>
       </c>
       <c r="D127" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E127" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F127" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G127" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I127" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J127" t="s">
         <v>19</v>
       </c>
       <c r="K127" t="n">
-        <v>66.727</v>
+        <v>0.570976315855</v>
       </c>
     </row>
     <row r="128">
@@ -5268,28 +5271,28 @@
         <v>2018</v>
       </c>
       <c r="D128" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E128" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F128" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G128" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I128" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J128" t="s">
         <v>19</v>
       </c>
       <c r="K128" t="n">
-        <v>68.264</v>
+        <v>46.5497493</v>
       </c>
     </row>
     <row r="129">
@@ -5303,28 +5306,28 @@
         <v>2018</v>
       </c>
       <c r="D129" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E129" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F129" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G129" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H129" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="I129" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J129" t="s">
         <v>19</v>
       </c>
       <c r="K129" t="n">
-        <v>0.477</v>
+        <v>593.845</v>
       </c>
     </row>
     <row r="130">
@@ -5338,28 +5341,28 @@
         <v>2018</v>
       </c>
       <c r="D130" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E130" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F130" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G130" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H130" t="s">
         <v>20</v>
       </c>
       <c r="I130" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J130" t="s">
         <v>19</v>
       </c>
       <c r="K130" t="n">
-        <v>3.4185</v>
+        <v>2790.5332</v>
       </c>
     </row>
     <row r="131">
@@ -5373,28 +5376,28 @@
         <v>2018</v>
       </c>
       <c r="D131" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E131" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F131" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G131" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H131" t="s">
         <v>20</v>
       </c>
       <c r="I131" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J131" t="s">
         <v>19</v>
       </c>
       <c r="K131" t="n">
-        <v>1.219</v>
+        <v>15688.2684</v>
       </c>
     </row>
     <row r="132">
@@ -5408,28 +5411,28 @@
         <v>2018</v>
       </c>
       <c r="D132" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E132" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H132" t="s">
         <v>20</v>
       </c>
       <c r="I132" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J132" t="s">
         <v>19</v>
       </c>
       <c r="K132" t="n">
-        <v>62.3015</v>
+        <v>51.5088</v>
       </c>
     </row>
     <row r="133">
@@ -5443,28 +5446,28 @@
         <v>2018</v>
       </c>
       <c r="D133" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E133" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F133" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H133" t="s">
         <v>20</v>
       </c>
       <c r="I133" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J133" t="s">
         <v>19</v>
       </c>
       <c r="K133" t="n">
-        <v>142.252</v>
+        <v>370.0032</v>
       </c>
     </row>
     <row r="134">
@@ -5478,28 +5481,28 @@
         <v>2018</v>
       </c>
       <c r="D134" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E134" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F134" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H134" t="s">
         <v>20</v>
       </c>
       <c r="I134" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J134" t="s">
         <v>19</v>
       </c>
       <c r="K134" t="n">
-        <v>666.5545</v>
+        <v>360.6512</v>
       </c>
     </row>
     <row r="135">
@@ -5513,28 +5516,28 @@
         <v>2018</v>
       </c>
       <c r="D135" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E135" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F135" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H135" t="s">
         <v>20</v>
       </c>
       <c r="I135" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J135" t="s">
         <v>19</v>
       </c>
       <c r="K135" t="n">
-        <v>27.4805</v>
+        <v>6385.3496</v>
       </c>
     </row>
     <row r="136">
@@ -5548,28 +5551,28 @@
         <v>2018</v>
       </c>
       <c r="D136" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E136" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F136" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H136" t="s">
         <v>20</v>
       </c>
       <c r="I136" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J136" t="s">
         <v>19</v>
       </c>
       <c r="K136" t="n">
-        <v>82.9715</v>
+        <v>11185.0284</v>
       </c>
     </row>
     <row r="137">
@@ -5583,28 +5586,28 @@
         <v>2018</v>
       </c>
       <c r="D137" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E137" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F137" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H137" t="s">
         <v>20</v>
       </c>
       <c r="I137" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J137" t="s">
         <v>19</v>
       </c>
       <c r="K137" t="n">
-        <v>22.79</v>
+        <v>208.1492</v>
       </c>
     </row>
     <row r="138">
@@ -5618,28 +5621,28 @@
         <v>2018</v>
       </c>
       <c r="D138" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E138" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H138" t="s">
         <v>20</v>
       </c>
       <c r="I138" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J138" t="s">
         <v>19</v>
       </c>
       <c r="K138" t="n">
-        <v>17.119</v>
+        <v>23.128</v>
       </c>
     </row>
     <row r="139">
@@ -5653,19 +5656,19 @@
         <v>2018</v>
       </c>
       <c r="D139" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E139" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F139" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I139" t="s">
         <v>88</v>
@@ -5674,7 +5677,7 @@
         <v>19</v>
       </c>
       <c r="K139" t="n">
-        <v>68.8735</v>
+        <v>66.727</v>
       </c>
     </row>
     <row r="140">
@@ -5688,19 +5691,19 @@
         <v>2018</v>
       </c>
       <c r="D140" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E140" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F140" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I140" t="s">
         <v>89</v>
@@ -5709,7 +5712,7 @@
         <v>19</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0795</v>
+        <v>68.264</v>
       </c>
     </row>
     <row r="141">
@@ -5723,19 +5726,19 @@
         <v>2018</v>
       </c>
       <c r="D141" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E141" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F141" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G141" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I141" t="s">
         <v>90</v>
@@ -5744,7 +5747,7 @@
         <v>19</v>
       </c>
       <c r="K141" t="n">
-        <v>0.6095</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="142">
@@ -5758,19 +5761,19 @@
         <v>2018</v>
       </c>
       <c r="D142" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E142" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F142" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G142" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I142" t="s">
         <v>91</v>
@@ -5779,7 +5782,7 @@
         <v>19</v>
       </c>
       <c r="K142" t="n">
-        <v>0.212</v>
+        <v>3.4185</v>
       </c>
     </row>
     <row r="143">
@@ -5793,19 +5796,19 @@
         <v>2018</v>
       </c>
       <c r="D143" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E143" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F143" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G143" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I143" t="s">
         <v>92</v>
@@ -5814,7 +5817,7 @@
         <v>19</v>
       </c>
       <c r="K143" t="n">
-        <v>41.1015</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="144">
@@ -5828,19 +5831,19 @@
         <v>2018</v>
       </c>
       <c r="D144" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E144" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F144" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I144" t="s">
         <v>93</v>
@@ -5849,7 +5852,7 @@
         <v>19</v>
       </c>
       <c r="K144" t="n">
-        <v>24.963</v>
+        <v>62.3015</v>
       </c>
     </row>
     <row r="145">
@@ -5863,19 +5866,19 @@
         <v>2018</v>
       </c>
       <c r="D145" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E145" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F145" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I145" t="s">
         <v>94</v>
@@ -5884,7 +5887,7 @@
         <v>19</v>
       </c>
       <c r="K145" t="n">
-        <v>924.055</v>
+        <v>142.252</v>
       </c>
     </row>
     <row r="146">
@@ -5898,19 +5901,19 @@
         <v>2018</v>
       </c>
       <c r="D146" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E146" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F146" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G146" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I146" t="s">
         <v>95</v>
@@ -5919,7 +5922,7 @@
         <v>19</v>
       </c>
       <c r="K146" t="n">
-        <v>35.9605</v>
+        <v>666.5545</v>
       </c>
     </row>
     <row r="147">
@@ -5933,28 +5936,28 @@
         <v>2018</v>
       </c>
       <c r="D147" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E147" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F147" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G147" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I147" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J147" t="s">
         <v>19</v>
       </c>
       <c r="K147" t="n">
-        <v>29.097</v>
+        <v>27.4805</v>
       </c>
     </row>
     <row r="148">
@@ -5968,19 +5971,19 @@
         <v>2018</v>
       </c>
       <c r="D148" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E148" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F148" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I148" t="s">
         <v>99</v>
@@ -5989,7 +5992,7 @@
         <v>19</v>
       </c>
       <c r="K148" t="n">
-        <v>8.003</v>
+        <v>82.9715</v>
       </c>
     </row>
     <row r="149">
@@ -6003,28 +6006,28 @@
         <v>2018</v>
       </c>
       <c r="D149" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E149" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F149" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G149" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H149" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I149" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="J149" t="s">
         <v>19</v>
       </c>
       <c r="K149" t="n">
-        <v>60.6648</v>
+        <v>22.79</v>
       </c>
     </row>
     <row r="150">
@@ -6038,19 +6041,19 @@
         <v>2018</v>
       </c>
       <c r="D150" t="s">
+        <v>101</v>
+      </c>
+      <c r="E150" t="s">
         <v>102</v>
       </c>
-      <c r="E150" t="s">
-        <v>103</v>
-      </c>
       <c r="F150" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H150" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I150" t="s">
         <v>88</v>
@@ -6059,7 +6062,7 @@
         <v>19</v>
       </c>
       <c r="K150" t="n">
-        <v>506.072</v>
+        <v>17.119</v>
       </c>
     </row>
     <row r="151">
@@ -6073,19 +6076,19 @@
         <v>2018</v>
       </c>
       <c r="D151" t="s">
+        <v>101</v>
+      </c>
+      <c r="E151" t="s">
         <v>102</v>
       </c>
-      <c r="E151" t="s">
-        <v>103</v>
-      </c>
       <c r="F151" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G151" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H151" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I151" t="s">
         <v>89</v>
@@ -6094,7 +6097,7 @@
         <v>19</v>
       </c>
       <c r="K151" t="n">
-        <v>6.2664</v>
+        <v>68.8735</v>
       </c>
     </row>
     <row r="152">
@@ -6108,19 +6111,19 @@
         <v>2018</v>
       </c>
       <c r="D152" t="s">
+        <v>101</v>
+      </c>
+      <c r="E152" t="s">
         <v>102</v>
       </c>
-      <c r="E152" t="s">
-        <v>103</v>
-      </c>
       <c r="F152" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G152" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H152" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I152" t="s">
         <v>90</v>
@@ -6129,7 +6132,7 @@
         <v>19</v>
       </c>
       <c r="K152" t="n">
-        <v>44.3996</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="153">
@@ -6143,19 +6146,19 @@
         <v>2018</v>
       </c>
       <c r="D153" t="s">
+        <v>101</v>
+      </c>
+      <c r="E153" t="s">
         <v>102</v>
       </c>
-      <c r="E153" t="s">
-        <v>103</v>
-      </c>
       <c r="F153" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G153" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H153" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I153" t="s">
         <v>91</v>
@@ -6164,7 +6167,7 @@
         <v>19</v>
       </c>
       <c r="K153" t="n">
-        <v>20.0704</v>
+        <v>0.6095</v>
       </c>
     </row>
     <row r="154">
@@ -6178,19 +6181,19 @@
         <v>2018</v>
       </c>
       <c r="D154" t="s">
+        <v>101</v>
+      </c>
+      <c r="E154" t="s">
         <v>102</v>
       </c>
-      <c r="E154" t="s">
-        <v>103</v>
-      </c>
       <c r="F154" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H154" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I154" t="s">
         <v>92</v>
@@ -6199,7 +6202,7 @@
         <v>19</v>
       </c>
       <c r="K154" t="n">
-        <v>255.4132</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="155">
@@ -6213,19 +6216,19 @@
         <v>2018</v>
       </c>
       <c r="D155" t="s">
+        <v>101</v>
+      </c>
+      <c r="E155" t="s">
         <v>102</v>
       </c>
-      <c r="E155" t="s">
-        <v>103</v>
-      </c>
       <c r="F155" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G155" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H155" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I155" t="s">
         <v>93</v>
@@ -6234,7 +6237,7 @@
         <v>19</v>
       </c>
       <c r="K155" t="n">
-        <v>492.142</v>
+        <v>41.1015</v>
       </c>
     </row>
     <row r="156">
@@ -6248,19 +6251,19 @@
         <v>2018</v>
       </c>
       <c r="D156" t="s">
+        <v>101</v>
+      </c>
+      <c r="E156" t="s">
         <v>102</v>
       </c>
-      <c r="E156" t="s">
-        <v>103</v>
-      </c>
       <c r="F156" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G156" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H156" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I156" t="s">
         <v>94</v>
@@ -6269,7 +6272,7 @@
         <v>19</v>
       </c>
       <c r="K156" t="n">
-        <v>208.1492</v>
+        <v>24.963</v>
       </c>
     </row>
     <row r="157">
@@ -6283,19 +6286,19 @@
         <v>2018</v>
       </c>
       <c r="D157" t="s">
+        <v>101</v>
+      </c>
+      <c r="E157" t="s">
         <v>102</v>
       </c>
-      <c r="E157" t="s">
-        <v>103</v>
-      </c>
       <c r="F157" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G157" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H157" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I157" t="s">
         <v>95</v>
@@ -6304,7 +6307,7 @@
         <v>19</v>
       </c>
       <c r="K157" t="n">
-        <v>23.128</v>
+        <v>924.055</v>
       </c>
     </row>
     <row r="158">
@@ -6318,28 +6321,28 @@
         <v>2018</v>
       </c>
       <c r="D158" t="s">
+        <v>101</v>
+      </c>
+      <c r="E158" t="s">
         <v>102</v>
       </c>
-      <c r="E158" t="s">
-        <v>103</v>
-      </c>
       <c r="F158" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H158" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I158" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J158" t="s">
         <v>19</v>
       </c>
       <c r="K158" t="n">
-        <v>76.4876</v>
+        <v>35.9605</v>
       </c>
     </row>
     <row r="159">
@@ -6353,19 +6356,19 @@
         <v>2018</v>
       </c>
       <c r="D159" t="s">
+        <v>101</v>
+      </c>
+      <c r="E159" t="s">
         <v>102</v>
       </c>
-      <c r="E159" t="s">
-        <v>103</v>
-      </c>
       <c r="F159" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G159" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H159" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I159" t="s">
         <v>99</v>
@@ -6374,7 +6377,7 @@
         <v>19</v>
       </c>
       <c r="K159" t="n">
-        <v>31.3292</v>
+        <v>29.097</v>
       </c>
     </row>
     <row r="160">
@@ -6388,28 +6391,28 @@
         <v>2018</v>
       </c>
       <c r="D160" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E160" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F160" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G160" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H160" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I160" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J160" t="s">
         <v>19</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>8.003</v>
       </c>
     </row>
     <row r="161">
@@ -6423,28 +6426,28 @@
         <v>2018</v>
       </c>
       <c r="D161" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E161" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F161" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G161" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I161" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="J161" t="s">
         <v>19</v>
       </c>
       <c r="K161" t="n">
-        <v>45991.2677</v>
+        <v>60.6648</v>
       </c>
     </row>
     <row r="162">
@@ -6458,28 +6461,28 @@
         <v>2018</v>
       </c>
       <c r="D162" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E162" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F162" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G162" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H162" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I162" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J162" t="s">
         <v>19</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>506.072</v>
       </c>
     </row>
     <row r="163">
@@ -6493,28 +6496,28 @@
         <v>2018</v>
       </c>
       <c r="D163" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E163" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F163" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G163" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H163" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I163" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="J163" t="s">
         <v>19</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>6.2664</v>
       </c>
     </row>
     <row r="164">
@@ -6528,28 +6531,28 @@
         <v>2018</v>
       </c>
       <c r="D164" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E164" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F164" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G164" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H164" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I164" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="J164" t="s">
         <v>19</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>44.3996</v>
       </c>
     </row>
     <row r="165">
@@ -6563,28 +6566,28 @@
         <v>2018</v>
       </c>
       <c r="D165" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E165" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F165" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G165" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H165" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I165" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="J165" t="s">
         <v>19</v>
       </c>
       <c r="K165" t="n">
-        <v>36.4868</v>
+        <v>20.0704</v>
       </c>
     </row>
     <row r="166">
@@ -6598,28 +6601,28 @@
         <v>2018</v>
       </c>
       <c r="D166" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E166" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F166" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H166" t="s">
         <v>20</v>
       </c>
       <c r="I166" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J166" t="s">
         <v>19</v>
       </c>
       <c r="K166" t="n">
-        <v>31.535</v>
+        <v>255.4132</v>
       </c>
     </row>
     <row r="167">
@@ -6633,28 +6636,28 @@
         <v>2018</v>
       </c>
       <c r="D167" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E167" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F167" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G167" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H167" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I167" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="J167" t="s">
         <v>19</v>
       </c>
       <c r="K167" t="n">
-        <v>1.5596</v>
+        <v>492.142</v>
       </c>
     </row>
     <row r="168">
@@ -6668,28 +6671,28 @@
         <v>2018</v>
       </c>
       <c r="D168" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E168" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F168" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G168" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H168" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I168" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="J168" t="s">
         <v>19</v>
       </c>
       <c r="K168" t="n">
-        <v>494.5136</v>
+        <v>208.1492</v>
       </c>
     </row>
     <row r="169">
@@ -6703,28 +6706,28 @@
         <v>2018</v>
       </c>
       <c r="D169" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E169" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F169" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G169" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H169" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I169" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="J169" t="s">
         <v>19</v>
       </c>
       <c r="K169" t="n">
-        <v>169.0444</v>
+        <v>23.128</v>
       </c>
     </row>
     <row r="170">
@@ -6738,28 +6741,28 @@
         <v>2018</v>
       </c>
       <c r="D170" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E170" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F170" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G170" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H170" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I170" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="J170" t="s">
         <v>19</v>
       </c>
       <c r="K170" t="n">
-        <v>4.3456</v>
+        <v>76.4876</v>
       </c>
     </row>
     <row r="171">
@@ -6773,28 +6776,28 @@
         <v>2018</v>
       </c>
       <c r="D171" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E171" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F171" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="G171" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H171" t="s">
         <v>20</v>
       </c>
       <c r="I171" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="J171" t="s">
         <v>19</v>
       </c>
       <c r="K171" t="n">
-        <v>0.371</v>
+        <v>31.3292</v>
       </c>
     </row>
     <row r="172">
@@ -6808,28 +6811,28 @@
         <v>2018</v>
       </c>
       <c r="D172" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E172" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F172" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G172" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H172" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I172" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J172" t="s">
         <v>19</v>
       </c>
       <c r="K172" t="n">
-        <v>121.3435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -6843,28 +6846,28 @@
         <v>2018</v>
       </c>
       <c r="D173" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E173" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F173" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G173" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H173" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I173" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J173" t="s">
         <v>19</v>
       </c>
       <c r="K173" t="n">
-        <v>41.4725</v>
+        <v>45991.2677</v>
       </c>
     </row>
     <row r="174">
@@ -6878,28 +6881,28 @@
         <v>2018</v>
       </c>
       <c r="D174" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E174" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F174" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G174" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H174" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I174" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="J174" t="s">
         <v>19</v>
       </c>
       <c r="K174" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6913,28 +6916,28 @@
         <v>2018</v>
       </c>
       <c r="D175" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E175" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F175" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G175" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H175" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I175" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J175" t="s">
         <v>19</v>
       </c>
       <c r="K175" t="n">
-        <v>1078.8708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -6948,28 +6951,28 @@
         <v>2018</v>
       </c>
       <c r="D176" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E176" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F176" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H176" t="s">
         <v>20</v>
       </c>
       <c r="I176" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J176" t="s">
         <v>19</v>
       </c>
       <c r="K176" t="n">
-        <v>932.2965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -6983,28 +6986,28 @@
         <v>2018</v>
       </c>
       <c r="D177" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E177" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F177" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H177" t="s">
         <v>20</v>
       </c>
       <c r="I177" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="J177" t="s">
         <v>19</v>
       </c>
       <c r="K177" t="n">
-        <v>2407.9225</v>
+        <v>36.4868</v>
       </c>
     </row>
     <row r="178">
@@ -7018,28 +7021,28 @@
         <v>2018</v>
       </c>
       <c r="D178" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E178" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F178" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H178" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I178" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="J178" t="s">
         <v>19</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>31.535</v>
       </c>
     </row>
     <row r="179">
@@ -7053,28 +7056,28 @@
         <v>2018</v>
       </c>
       <c r="D179" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E179" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F179" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G179" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H179" t="s">
         <v>20</v>
       </c>
       <c r="I179" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="J179" t="s">
         <v>19</v>
       </c>
       <c r="K179" t="n">
-        <v>1133.1665</v>
+        <v>1.5596</v>
       </c>
     </row>
     <row r="180">
@@ -7088,28 +7091,28 @@
         <v>2018</v>
       </c>
       <c r="D180" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E180" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F180" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G180" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H180" t="s">
         <v>20</v>
       </c>
       <c r="I180" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="J180" t="s">
         <v>19</v>
       </c>
       <c r="K180" t="n">
-        <v>7006.706</v>
+        <v>494.5136</v>
       </c>
     </row>
     <row r="181">
@@ -7123,28 +7126,28 @@
         <v>2018</v>
       </c>
       <c r="D181" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E181" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F181" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G181" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H181" t="s">
         <v>20</v>
       </c>
       <c r="I181" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="J181" t="s">
         <v>19</v>
       </c>
       <c r="K181" t="n">
-        <v>23.9825</v>
+        <v>169.0444</v>
       </c>
     </row>
     <row r="182">
@@ -7158,28 +7161,28 @@
         <v>2018</v>
       </c>
       <c r="D182" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E182" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F182" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G182" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H182" t="s">
         <v>20</v>
       </c>
       <c r="I182" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="J182" t="s">
         <v>19</v>
       </c>
       <c r="K182" t="n">
-        <v>169.441</v>
+        <v>4.3456</v>
       </c>
     </row>
     <row r="183">
@@ -7193,28 +7196,28 @@
         <v>2018</v>
       </c>
       <c r="D183" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E183" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F183" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G183" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I183" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="J183" t="s">
         <v>19</v>
       </c>
       <c r="K183" t="n">
-        <v>59.943</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="184">
@@ -7228,28 +7231,28 @@
         <v>2018</v>
       </c>
       <c r="D184" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E184" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F184" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G184" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I184" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="J184" t="s">
         <v>19</v>
       </c>
       <c r="K184" t="n">
-        <v>3203.9295</v>
+        <v>121.3435</v>
       </c>
     </row>
     <row r="185">
@@ -7263,28 +7266,28 @@
         <v>2018</v>
       </c>
       <c r="D185" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E185" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F185" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G185" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H185" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I185" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="J185" t="s">
         <v>19</v>
       </c>
       <c r="K185" t="n">
-        <v>7040.997</v>
+        <v>41.4725</v>
       </c>
     </row>
     <row r="186">
@@ -7298,28 +7301,28 @@
         <v>2018</v>
       </c>
       <c r="D186" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E186" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F186" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G186" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I186" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="J186" t="s">
         <v>19</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="187">
@@ -7333,28 +7336,28 @@
         <v>2018</v>
       </c>
       <c r="D187" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E187" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F187" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G187" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H187" t="s">
         <v>20</v>
       </c>
       <c r="I187" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="J187" t="s">
         <v>19</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>1078.8708</v>
       </c>
     </row>
     <row r="188">
@@ -7368,28 +7371,28 @@
         <v>2018</v>
       </c>
       <c r="D188" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E188" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F188" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G188" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H188" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I188" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="J188" t="s">
         <v>19</v>
       </c>
       <c r="K188" t="n">
-        <v>601.8945</v>
+        <v>932.2965</v>
       </c>
     </row>
     <row r="189">
@@ -7403,28 +7406,28 @@
         <v>2018</v>
       </c>
       <c r="D189" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E189" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F189" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H189" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I189" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="J189" t="s">
         <v>19</v>
       </c>
       <c r="K189" t="n">
-        <v>165.36</v>
+        <v>2407.9225</v>
       </c>
     </row>
     <row r="190">
@@ -7438,28 +7441,28 @@
         <v>2018</v>
       </c>
       <c r="D190" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E190" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F190" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G190" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H190" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I190" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J190" t="s">
         <v>19</v>
       </c>
       <c r="K190" t="n">
-        <v>12462.576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -7473,28 +7476,28 @@
         <v>2018</v>
       </c>
       <c r="D191" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E191" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F191" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G191" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H191" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I191" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="J191" t="s">
         <v>19</v>
       </c>
       <c r="K191" t="n">
-        <v>6.307</v>
+        <v>1133.1665</v>
       </c>
     </row>
     <row r="192">
@@ -7508,28 +7511,28 @@
         <v>2018</v>
       </c>
       <c r="D192" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E192" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F192" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G192" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I192" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="J192" t="s">
         <v>19</v>
       </c>
       <c r="K192" t="n">
-        <v>556.659</v>
+        <v>7006.706</v>
       </c>
     </row>
     <row r="193">
@@ -7543,28 +7546,28 @@
         <v>2018</v>
       </c>
       <c r="D193" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E193" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F193" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G193" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H193" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I193" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="J193" t="s">
         <v>19</v>
       </c>
       <c r="K193" t="n">
-        <v>114.4005</v>
+        <v>23.9825</v>
       </c>
     </row>
     <row r="194">
@@ -7578,28 +7581,28 @@
         <v>2018</v>
       </c>
       <c r="D194" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E194" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F194" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G194" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H194" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I194" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="J194" t="s">
         <v>19</v>
       </c>
       <c r="K194" t="n">
-        <v>537.791</v>
+        <v>169.441</v>
       </c>
     </row>
     <row r="195">
@@ -7613,28 +7616,28 @@
         <v>2018</v>
       </c>
       <c r="D195" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E195" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F195" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G195" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H195" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I195" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="J195" t="s">
         <v>19</v>
       </c>
       <c r="K195" t="n">
-        <v>71.0465</v>
+        <v>59.943</v>
       </c>
     </row>
     <row r="196">
@@ -7648,28 +7651,28 @@
         <v>2018</v>
       </c>
       <c r="D196" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E196" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F196" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G196" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I196" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="J196" t="s">
         <v>19</v>
       </c>
       <c r="K196" t="n">
-        <v>825.104</v>
+        <v>3203.9295</v>
       </c>
     </row>
     <row r="197">
@@ -7683,28 +7686,28 @@
         <v>2018</v>
       </c>
       <c r="D197" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E197" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F197" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G197" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H197" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I197" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="J197" t="s">
         <v>19</v>
       </c>
       <c r="K197" t="n">
-        <v>41.658</v>
+        <v>7040.997</v>
       </c>
     </row>
     <row r="198">
@@ -7718,27 +7721,29 @@
         <v>2018</v>
       </c>
       <c r="D198" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E198" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F198" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G198" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H198" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I198" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="J198" t="s">
         <v>19</v>
       </c>
-      <c r="K198"/>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
@@ -7751,28 +7756,28 @@
         <v>2018</v>
       </c>
       <c r="D199" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E199" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F199" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="G199" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H199" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I199" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="J199" t="s">
         <v>19</v>
       </c>
       <c r="K199" t="n">
-        <v>13585.7316032528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7786,28 +7791,28 @@
         <v>2018</v>
       </c>
       <c r="D200" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E200" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F200" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="G200" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H200" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I200" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="J200" t="s">
         <v>19</v>
       </c>
       <c r="K200" t="n">
-        <v>151.4856</v>
+        <v>601.8945</v>
       </c>
     </row>
     <row r="201">
@@ -7821,28 +7826,28 @@
         <v>2018</v>
       </c>
       <c r="D201" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E201" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F201" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="G201" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H201" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I201" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="J201" t="s">
         <v>19</v>
       </c>
       <c r="K201" t="n">
-        <v>12013.0905753432</v>
+        <v>165.36</v>
       </c>
     </row>
     <row r="202">
@@ -7856,28 +7861,28 @@
         <v>2018</v>
       </c>
       <c r="D202" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E202" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F202" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="G202" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H202" t="s">
         <v>20</v>
       </c>
       <c r="I202" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="J202" t="s">
         <v>19</v>
       </c>
       <c r="K202" t="n">
-        <v>1955.86029935237</v>
+        <v>12462.576</v>
       </c>
     </row>
     <row r="203">
@@ -7891,27 +7896,445 @@
         <v>2018</v>
       </c>
       <c r="D203" t="s">
+        <v>138</v>
+      </c>
+      <c r="E203" t="s">
+        <v>139</v>
+      </c>
+      <c r="F203" t="s">
+        <v>119</v>
+      </c>
+      <c r="G203" t="s">
+        <v>51</v>
+      </c>
+      <c r="H203" t="s">
+        <v>21</v>
+      </c>
+      <c r="I203" t="s">
+        <v>120</v>
+      </c>
+      <c r="J203" t="s">
+        <v>19</v>
+      </c>
+      <c r="K203" t="n">
+        <v>6.307</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D204" t="s">
+        <v>138</v>
+      </c>
+      <c r="E204" t="s">
+        <v>139</v>
+      </c>
+      <c r="F204" t="s">
+        <v>119</v>
+      </c>
+      <c r="G204" t="s">
+        <v>51</v>
+      </c>
+      <c r="H204" t="s">
+        <v>21</v>
+      </c>
+      <c r="I204" t="s">
+        <v>121</v>
+      </c>
+      <c r="J204" t="s">
+        <v>19</v>
+      </c>
+      <c r="K204" t="n">
+        <v>556.659</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D205" t="s">
+        <v>138</v>
+      </c>
+      <c r="E205" t="s">
+        <v>139</v>
+      </c>
+      <c r="F205" t="s">
+        <v>119</v>
+      </c>
+      <c r="G205" t="s">
+        <v>51</v>
+      </c>
+      <c r="H205" t="s">
+        <v>21</v>
+      </c>
+      <c r="I205" t="s">
+        <v>140</v>
+      </c>
+      <c r="J205" t="s">
+        <v>19</v>
+      </c>
+      <c r="K205" t="n">
+        <v>114.4005</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D206" t="s">
+        <v>138</v>
+      </c>
+      <c r="E206" t="s">
+        <v>139</v>
+      </c>
+      <c r="F206" t="s">
+        <v>119</v>
+      </c>
+      <c r="G206" t="s">
+        <v>51</v>
+      </c>
+      <c r="H206" t="s">
+        <v>21</v>
+      </c>
+      <c r="I206" t="s">
+        <v>141</v>
+      </c>
+      <c r="J206" t="s">
+        <v>19</v>
+      </c>
+      <c r="K206" t="n">
+        <v>537.791</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D207" t="s">
+        <v>138</v>
+      </c>
+      <c r="E207" t="s">
+        <v>139</v>
+      </c>
+      <c r="F207" t="s">
+        <v>119</v>
+      </c>
+      <c r="G207" t="s">
+        <v>51</v>
+      </c>
+      <c r="H207" t="s">
+        <v>21</v>
+      </c>
+      <c r="I207" t="s">
+        <v>142</v>
+      </c>
+      <c r="J207" t="s">
+        <v>19</v>
+      </c>
+      <c r="K207" t="n">
+        <v>71.0465</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D208" t="s">
+        <v>138</v>
+      </c>
+      <c r="E208" t="s">
+        <v>139</v>
+      </c>
+      <c r="F208" t="s">
+        <v>119</v>
+      </c>
+      <c r="G208" t="s">
+        <v>51</v>
+      </c>
+      <c r="H208" t="s">
+        <v>21</v>
+      </c>
+      <c r="I208" t="s">
+        <v>122</v>
+      </c>
+      <c r="J208" t="s">
+        <v>19</v>
+      </c>
+      <c r="K208" t="n">
+        <v>825.104</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D209" t="s">
+        <v>138</v>
+      </c>
+      <c r="E209" t="s">
+        <v>139</v>
+      </c>
+      <c r="F209" t="s">
+        <v>119</v>
+      </c>
+      <c r="G209" t="s">
+        <v>51</v>
+      </c>
+      <c r="H209" t="s">
+        <v>21</v>
+      </c>
+      <c r="I209" t="s">
+        <v>143</v>
+      </c>
+      <c r="J209" t="s">
+        <v>19</v>
+      </c>
+      <c r="K209" t="n">
+        <v>41.658</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D210" t="s">
+        <v>138</v>
+      </c>
+      <c r="E210" t="s">
+        <v>139</v>
+      </c>
+      <c r="F210" t="s">
+        <v>119</v>
+      </c>
+      <c r="G210" t="s">
+        <v>51</v>
+      </c>
+      <c r="H210" t="s">
+        <v>21</v>
+      </c>
+      <c r="I210" t="s">
+        <v>123</v>
+      </c>
+      <c r="J210" t="s">
+        <v>19</v>
+      </c>
+      <c r="K210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D211" t="s">
+        <v>144</v>
+      </c>
+      <c r="E211" t="s">
+        <v>145</v>
+      </c>
+      <c r="F211" t="s">
+        <v>146</v>
+      </c>
+      <c r="G211" t="s">
+        <v>51</v>
+      </c>
+      <c r="H211" t="s">
+        <v>20</v>
+      </c>
+      <c r="I211" t="s">
+        <v>147</v>
+      </c>
+      <c r="J211" t="s">
+        <v>19</v>
+      </c>
+      <c r="K211" t="n">
+        <v>13585.7316032528</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D212" t="s">
+        <v>148</v>
+      </c>
+      <c r="E212" t="s">
+        <v>149</v>
+      </c>
+      <c r="F212" t="s">
+        <v>146</v>
+      </c>
+      <c r="G212" t="s">
+        <v>51</v>
+      </c>
+      <c r="H212" t="s">
+        <v>20</v>
+      </c>
+      <c r="I212" t="s">
+        <v>150</v>
+      </c>
+      <c r="J212" t="s">
+        <v>19</v>
+      </c>
+      <c r="K212" t="n">
+        <v>151.4856</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D213" t="s">
+        <v>151</v>
+      </c>
+      <c r="E213" t="s">
+        <v>152</v>
+      </c>
+      <c r="F213" t="s">
+        <v>146</v>
+      </c>
+      <c r="G213" t="s">
+        <v>51</v>
+      </c>
+      <c r="H213" t="s">
+        <v>20</v>
+      </c>
+      <c r="I213" t="s">
         <v>153</v>
       </c>
-      <c r="E203" t="s">
+      <c r="J213" t="s">
+        <v>19</v>
+      </c>
+      <c r="K213" t="n">
+        <v>12013.0905753432</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D214" t="s">
+        <v>151</v>
+      </c>
+      <c r="E214" t="s">
+        <v>152</v>
+      </c>
+      <c r="F214" t="s">
+        <v>146</v>
+      </c>
+      <c r="G214" t="s">
+        <v>51</v>
+      </c>
+      <c r="H214" t="s">
+        <v>21</v>
+      </c>
+      <c r="I214" t="s">
+        <v>153</v>
+      </c>
+      <c r="J214" t="s">
+        <v>19</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1955.86029935237</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D215" t="s">
         <v>154</v>
       </c>
-      <c r="F203" t="s">
+      <c r="E215" t="s">
         <v>155</v>
       </c>
-      <c r="G203" t="s">
-        <v>49</v>
-      </c>
-      <c r="H203" t="s">
-        <v>20</v>
-      </c>
-      <c r="I203" t="s">
+      <c r="F215" t="s">
         <v>156</v>
       </c>
-      <c r="J203" t="s">
-        <v>19</v>
-      </c>
-      <c r="K203" t="n">
+      <c r="G215" t="s">
+        <v>51</v>
+      </c>
+      <c r="H215" t="s">
+        <v>21</v>
+      </c>
+      <c r="I215" t="s">
+        <v>157</v>
+      </c>
+      <c r="J215" t="s">
+        <v>19</v>
+      </c>
+      <c r="K215" t="n">
         <v>3556.36366010438</v>
       </c>
     </row>
